--- a/data/recall-words.xlsx
+++ b/data/recall-words.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\koron\work\so-net\jsts-vector-eval\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA4E7FD-0377-43F6-B694-F2E2C0BEE912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF83565-10AB-47BD-B8C9-23976E3CF99B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{394079CE-D73F-4ECF-96E1-3A9AA2E73999}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>Q-type</t>
   </si>
@@ -68,7 +68,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="0.00000_ "/>
+    <numFmt numFmtId="176" formatCode="0.00000_ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -134,19 +134,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -463,11 +463,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A68F0DB-3902-412F-85AF-34DA455EED10}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -695,6 +693,86 @@
         <v>0.99773000000000001</v>
       </c>
     </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="2">
+        <v>768</v>
+      </c>
+      <c r="C12" s="2">
+        <v>16</v>
+      </c>
+      <c r="D12" s="2">
+        <v>6</v>
+      </c>
+      <c r="E12" s="2">
+        <v>10</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="2">
+        <v>768</v>
+      </c>
+      <c r="C13" s="2">
+        <v>16</v>
+      </c>
+      <c r="D13" s="2">
+        <v>6</v>
+      </c>
+      <c r="E13" s="2">
+        <v>10</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.52390999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="2">
+        <v>768</v>
+      </c>
+      <c r="C14" s="2">
+        <v>16</v>
+      </c>
+      <c r="D14" s="2">
+        <v>6</v>
+      </c>
+      <c r="E14" s="2">
+        <v>10</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.79795000000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2">
+        <v>768</v>
+      </c>
+      <c r="C15" s="2">
+        <v>16</v>
+      </c>
+      <c r="D15" s="2">
+        <v>6</v>
+      </c>
+      <c r="E15" s="2">
+        <v>10</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.71833999999999998</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{1A68F0DB-3902-412F-85AF-34DA455EED10}"/>
   <phoneticPr fontId="1"/>
